--- a/static/excel/samples/department_config_mechanical.xlsx
+++ b/static/excel/samples/department_config_mechanical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOODHOPE ORDU\Documents\excel_converter\static\excel\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C51A74-3CED-491B-8B9A-03F8437F03CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6DE2C6-BB00-4E94-B9E3-780ABED21C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{E4E2A758-F7D2-4D95-B1D3-14046877250E}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>Department long:</t>
   </si>
   <si>
-    <t>spreadsheet_template_generic</t>
-  </si>
-  <si>
     <t>summary_template_generic</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
     <t>Computer Programming for Engineers</t>
   </si>
   <si>
-    <t>MEG 200.1</t>
-  </si>
-  <si>
     <t>Intro. to Manufacturing Processes</t>
   </si>
   <si>
@@ -334,9 +328,6 @@
     <t>Technical Writing and Presentation</t>
   </si>
   <si>
-    <t>MEG 300.1</t>
-  </si>
-  <si>
     <t>System Instrumentation Workshop Practice</t>
   </si>
   <si>
@@ -623,6 +614,15 @@
   </si>
   <si>
     <t>MEG 540.2</t>
+  </si>
+  <si>
+    <t>MEG 200.0</t>
+  </si>
+  <si>
+    <t>MEG 300.0</t>
+  </si>
+  <si>
+    <t>spreadsheet_template</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1340,7 @@
   <dimension ref="A2:H150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -1364,7 +1364,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>8</v>
@@ -1384,13 +1384,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="16"/>
@@ -1400,7 +1400,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="14"/>
@@ -1431,7 +1431,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1447,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -1487,10 +1487,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C13" s="25">
         <v>3</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A14" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>27</v>
       </c>
       <c r="C14" s="25">
         <v>2</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>29</v>
       </c>
       <c r="C15" s="25">
         <v>3</v>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>31</v>
       </c>
       <c r="C16" s="25">
         <v>2</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A17" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>33</v>
       </c>
       <c r="C17" s="25">
         <v>3</v>
@@ -1591,10 +1591,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>35</v>
       </c>
       <c r="C18" s="25">
         <v>3</v>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A19" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>37</v>
       </c>
       <c r="C19" s="25">
         <v>3</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A20" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>39</v>
       </c>
       <c r="C20" s="25">
         <v>1</v>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C21" s="25">
         <v>3</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A22" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>43</v>
       </c>
       <c r="C22" s="25">
         <v>2</v>
@@ -1691,10 +1691,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A23" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>45</v>
       </c>
       <c r="C23" s="25">
         <v>1</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>47</v>
       </c>
       <c r="C24" s="25">
         <v>2</v>
@@ -1731,10 +1731,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A25" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>49</v>
       </c>
       <c r="C25" s="25">
         <v>2</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>51</v>
       </c>
       <c r="C26" s="25">
         <v>2</v>
@@ -1771,10 +1771,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A27" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>53</v>
       </c>
       <c r="C27" s="25">
         <v>3</v>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A28" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="27" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>55</v>
       </c>
       <c r="C28" s="25">
         <v>1</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A29" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>57</v>
       </c>
       <c r="C29" s="25">
         <v>3</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="C30" s="25">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A31" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>61</v>
       </c>
       <c r="C31" s="25">
         <v>2</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A32" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>63</v>
       </c>
       <c r="C32" s="25">
         <v>3</v>
@@ -1891,10 +1891,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A33" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="C33" s="25">
         <v>2</v>
@@ -1911,10 +1911,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A34" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="C34" s="25">
         <v>3</v>
@@ -1931,10 +1931,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A35" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="27" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>69</v>
       </c>
       <c r="C35" s="25">
         <v>1</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A36" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="27" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>71</v>
       </c>
       <c r="C36" s="25">
         <v>2</v>
@@ -1971,10 +1971,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A37" s="27" t="s">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" s="25">
         <v>2</v>
@@ -1991,10 +1991,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A38" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="25">
         <v>1</v>
@@ -2011,10 +2011,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A39" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" s="25">
         <v>3</v>
@@ -2031,10 +2031,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A40" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40" s="25">
         <v>3</v>
@@ -2051,10 +2051,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A41" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" s="25">
         <v>1</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A42" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" s="25">
         <v>3</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A43" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43" s="25">
         <v>2</v>
@@ -2111,10 +2111,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A44" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C44" s="25">
         <v>2</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A45" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C45" s="25">
         <v>3</v>
@@ -2151,10 +2151,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A46" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" s="25">
         <v>1</v>
@@ -2171,10 +2171,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A47" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C47" s="25">
         <v>2</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A48" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" s="25">
         <v>1</v>
@@ -2211,10 +2211,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A49" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C49" s="25">
         <v>3</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A50" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C50" s="25">
         <v>2</v>
@@ -2251,10 +2251,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A51" s="27" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C51" s="25">
         <v>1</v>
@@ -2271,10 +2271,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A52" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C52" s="25">
         <v>2</v>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A53" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C53" s="25">
         <v>2</v>
@@ -2311,10 +2311,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A54" s="27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C54" s="25">
         <v>3</v>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A55" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C55" s="25">
         <v>3</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A56" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C56" s="25">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A57" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C57" s="25">
         <v>3</v>
@@ -2391,10 +2391,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A58" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C58" s="25">
         <v>3</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A59" s="27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C59" s="25">
         <v>2</v>
@@ -2431,10 +2431,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A60" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C60" s="25">
         <v>2</v>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A61" s="27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C61" s="25">
         <v>2</v>
@@ -2471,10 +2471,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A62" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C62" s="25">
         <v>2</v>
@@ -2491,10 +2491,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A63" s="27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C63" s="25">
         <v>2</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A64" s="27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C64" s="25">
         <v>3</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A65" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C65" s="25">
         <v>2</v>
@@ -2551,10 +2551,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A66" s="27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C66" s="25">
         <v>3</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A67" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C67" s="25">
         <v>3</v>
@@ -2591,10 +2591,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A68" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C68" s="25">
         <v>3</v>
@@ -2611,10 +2611,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A69" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C69" s="25">
         <v>2</v>
@@ -2631,10 +2631,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A70" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C70" s="25">
         <v>2</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A71" s="27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C71" s="25">
         <v>2</v>
@@ -2671,10 +2671,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A72" s="27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C72" s="25">
         <v>2</v>
@@ -2691,10 +2691,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A73" s="27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C73" s="25">
         <v>3</v>
@@ -2711,10 +2711,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A74" s="27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C74" s="25">
         <v>2</v>
@@ -2731,10 +2731,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A75" s="27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C75" s="25">
         <v>1</v>
@@ -2751,10 +2751,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A76" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C76" s="25">
         <v>9</v>
@@ -2771,10 +2771,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A77" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C77" s="25">
         <v>2</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A78" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C78" s="25">
         <v>2</v>
@@ -2811,10 +2811,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A79" s="27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C79" s="25">
         <v>2</v>
@@ -2831,10 +2831,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A80" s="27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C80" s="25">
         <v>2</v>
@@ -2851,10 +2851,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A81" s="27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C81" s="25">
         <v>2</v>
@@ -2871,10 +2871,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A82" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C82" s="25">
         <v>3</v>
@@ -2891,10 +2891,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A83" s="27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C83" s="25">
         <v>2</v>
@@ -2911,10 +2911,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A84" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C84" s="25">
         <v>1</v>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A85" s="27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C85" s="25">
         <v>3</v>
@@ -2951,10 +2951,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A86" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C86" s="25">
         <v>3</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A87" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C87" s="26">
         <v>3</v>
@@ -2991,10 +2991,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A88" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C88" s="26">
         <v>3</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A89" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C89" s="26">
         <v>3</v>
@@ -3031,10 +3031,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A90" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C90" s="25">
         <v>6</v>
@@ -3051,10 +3051,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A91" s="27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C91" s="25">
         <v>3</v>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A92" s="27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C92" s="25">
         <v>3</v>
@@ -3091,10 +3091,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A93" s="27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C93" s="25">
         <v>2</v>
@@ -3111,10 +3111,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A94" s="27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C94" s="25">
         <v>3</v>
@@ -3131,10 +3131,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A95" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C95" s="25">
         <v>3</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A96" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C96" s="26">
         <v>3</v>
@@ -3171,10 +3171,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A97" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C97" s="26">
         <v>3</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A98" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C98" s="26">
         <v>3</v>
@@ -3211,10 +3211,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A99" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C99" s="26">
         <v>3</v>

--- a/static/excel/samples/department_config_mechanical.xlsx
+++ b/static/excel/samples/department_config_mechanical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOODHOPE ORDU\Documents\excel_converter\static\excel\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6DE2C6-BB00-4E94-B9E3-780ABED21C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0855B333-DFE6-447A-84EA-E944F9E98744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{E4E2A758-F7D2-4D95-B1D3-14046877250E}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>Department long:</t>
   </si>
   <si>
-    <t>summary_template_generic</t>
-  </si>
-  <si>
     <t>Faculty of Engineering</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>Basic Electrical Engineering</t>
   </si>
   <si>
-    <t>ENG 212.1</t>
-  </si>
-  <si>
     <t>Community Service</t>
   </si>
   <si>
@@ -623,6 +617,12 @@
   </si>
   <si>
     <t>spreadsheet_template</t>
+  </si>
+  <si>
+    <t>ENG 212.2</t>
+  </si>
+  <si>
+    <t>summary_template</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1364,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>8</v>
@@ -1384,13 +1384,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="16"/>
@@ -1400,7 +1400,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="14"/>
@@ -1431,7 +1431,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1447,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -1487,10 +1487,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C13" s="25">
         <v>3</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>26</v>
       </c>
       <c r="C14" s="25">
         <v>2</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A15" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>28</v>
       </c>
       <c r="C15" s="25">
         <v>3</v>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>30</v>
       </c>
       <c r="C16" s="25">
         <v>2</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A17" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>32</v>
       </c>
       <c r="C17" s="25">
         <v>3</v>
@@ -1591,10 +1591,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>34</v>
       </c>
       <c r="C18" s="25">
         <v>3</v>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>36</v>
       </c>
       <c r="C19" s="25">
         <v>3</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A20" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>38</v>
       </c>
       <c r="C20" s="25">
         <v>1</v>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C21" s="25">
         <v>3</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A22" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>42</v>
       </c>
       <c r="C22" s="25">
         <v>2</v>
@@ -1691,10 +1691,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>44</v>
       </c>
       <c r="C23" s="25">
         <v>1</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A24" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>46</v>
       </c>
       <c r="C24" s="25">
         <v>2</v>
@@ -1731,10 +1731,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A25" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>48</v>
       </c>
       <c r="C25" s="25">
         <v>2</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A26" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>49</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>50</v>
       </c>
       <c r="C26" s="25">
         <v>2</v>
@@ -1771,10 +1771,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A27" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>51</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>52</v>
       </c>
       <c r="C27" s="25">
         <v>3</v>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A28" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="27" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>54</v>
       </c>
       <c r="C28" s="25">
         <v>1</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A29" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>56</v>
       </c>
       <c r="C29" s="25">
         <v>3</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="C30" s="25">
         <v>3</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>60</v>
       </c>
       <c r="C31" s="25">
         <v>2</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A32" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>62</v>
       </c>
       <c r="C32" s="25">
         <v>3</v>
@@ -1891,10 +1891,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A33" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="27" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>64</v>
       </c>
       <c r="C33" s="25">
         <v>2</v>
@@ -1911,10 +1911,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A34" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>66</v>
       </c>
       <c r="C34" s="25">
         <v>3</v>
@@ -1931,13 +1931,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A35" s="27" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C35" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" s="26">
         <v>2</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A36" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" s="25">
         <v>2</v>
@@ -1971,10 +1971,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A37" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37" s="25">
         <v>2</v>
@@ -1991,10 +1991,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A38" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38" s="25">
         <v>1</v>
@@ -2011,19 +2011,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A39" s="27" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C39" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" s="26">
         <v>2</v>
       </c>
       <c r="E39" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="25">
         <v>0</v>
@@ -2031,10 +2031,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A40" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="25">
         <v>3</v>
@@ -2051,10 +2051,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A41" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" s="25">
         <v>1</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A42" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42" s="25">
         <v>3</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A43" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" s="25">
         <v>2</v>
@@ -2111,10 +2111,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A44" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" s="25">
         <v>2</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A45" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C45" s="25">
         <v>3</v>
@@ -2151,10 +2151,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A46" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C46" s="25">
         <v>1</v>
@@ -2171,10 +2171,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A47" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C47" s="25">
         <v>2</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A48" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48" s="25">
         <v>1</v>
@@ -2211,10 +2211,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A49" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C49" s="25">
         <v>3</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A50" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C50" s="25">
         <v>2</v>
@@ -2251,10 +2251,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A51" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C51" s="25">
         <v>1</v>
@@ -2271,10 +2271,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A52" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" s="25">
         <v>2</v>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A53" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C53" s="25">
         <v>2</v>
@@ -2311,10 +2311,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A54" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C54" s="25">
         <v>3</v>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A55" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C55" s="25">
         <v>3</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A56" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C56" s="25">
         <v>3</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A57" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C57" s="25">
         <v>3</v>
@@ -2391,10 +2391,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A58" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C58" s="25">
         <v>3</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A59" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C59" s="25">
         <v>2</v>
@@ -2431,10 +2431,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A60" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C60" s="25">
         <v>2</v>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A61" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C61" s="25">
         <v>2</v>
@@ -2471,10 +2471,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A62" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C62" s="25">
         <v>2</v>
@@ -2491,10 +2491,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A63" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C63" s="25">
         <v>2</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A64" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C64" s="25">
         <v>3</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A65" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C65" s="25">
         <v>2</v>
@@ -2551,10 +2551,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A66" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C66" s="25">
         <v>3</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A67" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C67" s="25">
         <v>3</v>
@@ -2591,10 +2591,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A68" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C68" s="25">
         <v>3</v>
@@ -2611,10 +2611,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A69" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C69" s="25">
         <v>2</v>
@@ -2631,10 +2631,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A70" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C70" s="25">
         <v>2</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A71" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C71" s="25">
         <v>2</v>
@@ -2671,10 +2671,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A72" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C72" s="25">
         <v>2</v>
@@ -2691,10 +2691,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A73" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C73" s="25">
         <v>3</v>
@@ -2711,10 +2711,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A74" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C74" s="25">
         <v>2</v>
@@ -2731,10 +2731,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A75" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C75" s="25">
         <v>1</v>
@@ -2751,10 +2751,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A76" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C76" s="25">
         <v>9</v>
@@ -2771,10 +2771,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A77" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C77" s="25">
         <v>2</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A78" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C78" s="25">
         <v>2</v>
@@ -2811,10 +2811,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A79" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C79" s="25">
         <v>2</v>
@@ -2831,10 +2831,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A80" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C80" s="25">
         <v>2</v>
@@ -2851,10 +2851,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A81" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C81" s="25">
         <v>2</v>
@@ -2871,10 +2871,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A82" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C82" s="25">
         <v>3</v>
@@ -2891,10 +2891,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A83" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C83" s="25">
         <v>2</v>
@@ -2911,10 +2911,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A84" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C84" s="25">
         <v>1</v>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A85" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C85" s="25">
         <v>3</v>
@@ -2951,10 +2951,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A86" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C86" s="25">
         <v>3</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A87" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C87" s="26">
         <v>3</v>
@@ -2991,10 +2991,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A88" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C88" s="26">
         <v>3</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A89" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C89" s="26">
         <v>3</v>
@@ -3031,10 +3031,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A90" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C90" s="25">
         <v>6</v>
@@ -3051,10 +3051,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A91" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C91" s="25">
         <v>3</v>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A92" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C92" s="25">
         <v>3</v>
@@ -3091,10 +3091,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A93" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C93" s="25">
         <v>2</v>
@@ -3111,10 +3111,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A94" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C94" s="25">
         <v>3</v>
@@ -3131,10 +3131,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A95" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C95" s="25">
         <v>3</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A96" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C96" s="26">
         <v>3</v>
@@ -3171,10 +3171,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A97" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C97" s="26">
         <v>3</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A98" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C98" s="26">
         <v>3</v>
@@ -3211,10 +3211,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A99" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C99" s="26">
         <v>3</v>
